--- a/data/trans_orig/P1403-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1403-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AEA42F4-7F60-4DD7-9981-9BE40626B69E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5ED41799-6796-4A37-9FEF-4D162F5620EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{14D69DAB-9014-4496-94E8-F617A04465C7}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CEE4C044-9924-4E15-99E0-859D613D75EC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -95,1381 +95,1381 @@
     <t>19,29%</t>
   </si>
   <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
   </si>
   <si>
     <t>18,98%</t>
   </si>
   <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
   </si>
   <si>
     <t>19,14%</t>
   </si>
   <si>
-    <t>14,69%</t>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de hipertensión en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de hipertensión en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de hipertensión en 2023 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
   </si>
   <si>
     <t>24,84%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
   </si>
   <si>
     <t>75,16%</t>
   </si>
   <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de hipertensión en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de hipertensión en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>71,18%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
   </si>
   <si>
     <t>17,51%</t>
   </si>
   <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de hipertensión en 2023 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
   </si>
   <si>
     <t>47,58%</t>
   </si>
   <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
+    <t>84,06%</t>
   </si>
   <si>
     <t>76,11%</t>
   </si>
   <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
+    <t>58,35%</t>
   </si>
   <si>
     <t>0,24%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
   </si>
   <si>
     <t>20,0%</t>
   </si>
   <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
   </si>
   <si>
     <t>22,05%</t>
   </si>
   <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
   </si>
   <si>
     <t>80,0%</t>
   </si>
   <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
   </si>
   <si>
     <t>75,99%</t>
   </si>
   <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
   </si>
   <si>
     <t>77,82%</t>
   </si>
   <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
   </si>
   <si>
     <t>0,44%</t>
   </si>
   <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
     <t>19,54%</t>
   </si>
   <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
   </si>
   <si>
     <t>23,42%</t>
   </si>
   <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
   </si>
   <si>
     <t>21,6%</t>
   </si>
   <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
   </si>
   <si>
     <t>80,46%</t>
   </si>
   <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
   </si>
   <si>
     <t>75,76%</t>
   </si>
   <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
   </si>
   <si>
     <t>77,96%</t>
   </si>
   <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
   </si>
 </sst>
 </file>
@@ -1881,7 +1881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F83C72-F072-4B63-ACFB-A6BDFEF4DDF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3615F6B-FEB3-4C45-B5D2-00E9E32986E6}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2910,13 +2910,13 @@
         <v>283830</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2931,13 +2931,13 @@
         <v>825974</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H22" s="7">
         <v>836</v>
@@ -2946,13 +2946,13 @@
         <v>871030</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M22" s="7">
         <v>1700</v>
@@ -2961,13 +2961,13 @@
         <v>1697004</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3041,7 +3041,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3056,7 +3056,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -3071,7 +3071,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3086,13 +3086,13 @@
         <v>427220</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H25" s="7">
         <v>556</v>
@@ -3101,13 +3101,13 @@
         <v>572800</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M25" s="7">
         <v>993</v>
@@ -3116,13 +3116,13 @@
         <v>1000020</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3137,13 +3137,13 @@
         <v>2849324</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H26" s="7">
         <v>2741</v>
@@ -3152,28 +3152,28 @@
         <v>2806398</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M26" s="7">
         <v>5518</v>
       </c>
       <c r="N26" s="7">
-        <v>5655720</v>
+        <v>5655721</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3215,7 +3215,7 @@
         <v>6511</v>
       </c>
       <c r="N27" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>36</v>
@@ -3229,7 +3229,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -3250,7 +3250,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55CCA0D2-5C5D-471D-B1B7-93CF39C360C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E70614FE-C2C3-42C3-94D9-828BA01F930E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3267,7 +3267,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3380,7 +3380,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3410,7 +3410,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3425,13 +3425,13 @@
         <v>17075</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H5" s="7">
         <v>20</v>
@@ -3440,13 +3440,13 @@
         <v>21945</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M5" s="7">
         <v>38</v>
@@ -3455,13 +3455,13 @@
         <v>39021</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>92</v>
+        <v>152</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3476,13 +3476,13 @@
         <v>98690</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H6" s="7">
         <v>79</v>
@@ -3491,13 +3491,13 @@
         <v>89960</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M6" s="7">
         <v>183</v>
@@ -3506,7 +3506,7 @@
         <v>188649</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>100</v>
+        <v>161</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>162</v>
@@ -3870,10 +3870,10 @@
         <v>190</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>90</v>
+        <v>191</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3888,13 +3888,13 @@
         <v>869081</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H14" s="7">
         <v>761</v>
@@ -3903,13 +3903,13 @@
         <v>835750</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M14" s="7">
         <v>1562</v>
@@ -3918,13 +3918,13 @@
         <v>1704832</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4013,7 +4013,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4043,13 +4043,13 @@
         <v>112807</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>43</v>
+        <v>205</v>
       </c>
       <c r="H17" s="7">
         <v>124</v>
@@ -4058,13 +4058,13 @@
         <v>134749</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M17" s="7">
         <v>224</v>
@@ -4076,10 +4076,10 @@
         <v>108</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>205</v>
+        <v>107</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4094,13 +4094,13 @@
         <v>644816</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>51</v>
+        <v>211</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H18" s="7">
         <v>580</v>
@@ -4109,13 +4109,13 @@
         <v>641316</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>176</v>
+        <v>213</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="M18" s="7">
         <v>1169</v>
@@ -4124,13 +4124,13 @@
         <v>1286133</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>212</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4249,13 +4249,13 @@
         <v>177157</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H21" s="7">
         <v>231</v>
@@ -4264,13 +4264,13 @@
         <v>246222</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="M21" s="7">
         <v>392</v>
@@ -4279,13 +4279,13 @@
         <v>423379</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>220</v>
+        <v>17</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4300,13 +4300,13 @@
         <v>770582</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H22" s="7">
         <v>772</v>
@@ -4315,13 +4315,13 @@
         <v>805679</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M22" s="7">
         <v>1521</v>
@@ -4330,13 +4330,13 @@
         <v>1576261</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>230</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4410,7 +4410,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4425,7 +4425,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4440,7 +4440,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4455,13 +4455,13 @@
         <v>576578</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>231</v>
+        <v>92</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H25" s="7">
         <v>691</v>
@@ -4470,13 +4470,13 @@
         <v>745194</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M25" s="7">
         <v>1215</v>
@@ -4485,13 +4485,13 @@
         <v>1321773</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4506,7 +4506,7 @@
         <v>2850201</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>241</v>
@@ -4533,7 +4533,7 @@
         <v>5289</v>
       </c>
       <c r="N26" s="7">
-        <v>5658995</v>
+        <v>5658996</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>246</v>
@@ -4584,7 +4584,7 @@
         <v>6504</v>
       </c>
       <c r="N27" s="7">
-        <v>6980768</v>
+        <v>6980769</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>36</v>
@@ -4598,7 +4598,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -4619,7 +4619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E112EEE-63AE-49DA-8F1D-FC496AC70850}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E6F0F89-DD6C-4892-A49C-5C2299212B5A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4824,13 +4824,13 @@
         <v>41388</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4845,13 +4845,13 @@
         <v>93213</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="H6" s="7">
         <v>97</v>
@@ -4860,13 +4860,13 @@
         <v>95305</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="M6" s="7">
         <v>186</v>
@@ -4875,13 +4875,13 @@
         <v>188518</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4955,7 +4955,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4985,7 +4985,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5000,13 +5000,13 @@
         <v>79722</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>127</v>
+        <v>271</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="H9" s="7">
         <v>106</v>
@@ -5015,13 +5015,13 @@
         <v>113855</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="M9" s="7">
         <v>188</v>
@@ -5030,13 +5030,13 @@
         <v>193577</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5051,7 +5051,7 @@
         <v>478532</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>135</v>
+        <v>279</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>280</v>
@@ -5087,7 +5087,7 @@
         <v>286</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>77</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5206,13 +5206,13 @@
         <v>158286</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>86</v>
+        <v>287</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H13" s="7">
         <v>147</v>
@@ -5221,13 +5221,13 @@
         <v>176081</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M13" s="7">
         <v>299</v>
@@ -5236,13 +5236,13 @@
         <v>334366</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5257,13 +5257,13 @@
         <v>864145</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>94</v>
+        <v>295</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H14" s="7">
         <v>830</v>
@@ -5275,10 +5275,10 @@
         <v>284</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M14" s="7">
         <v>1629</v>
@@ -5287,13 +5287,13 @@
         <v>1730978</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5382,7 +5382,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5397,7 +5397,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5412,13 +5412,13 @@
         <v>108410</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H17" s="7">
         <v>119</v>
@@ -5427,10 +5427,10 @@
         <v>140548</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>307</v>
+        <v>203</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>308</v>
@@ -5445,10 +5445,10 @@
         <v>309</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>233</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5463,13 +5463,13 @@
         <v>651142</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="H18" s="7">
         <v>617</v>
@@ -5478,13 +5478,13 @@
         <v>644463</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>316</v>
+        <v>210</v>
       </c>
       <c r="M18" s="7">
         <v>1211</v>
@@ -5493,13 +5493,13 @@
         <v>1295605</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>241</v>
+        <v>74</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5618,13 +5618,13 @@
         <v>144422</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H21" s="7">
         <v>149</v>
@@ -5633,13 +5633,13 @@
         <v>180865</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="M21" s="7">
         <v>297</v>
@@ -5648,13 +5648,13 @@
         <v>325287</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5669,13 +5669,13 @@
         <v>793145</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="H22" s="7">
         <v>810</v>
@@ -5684,13 +5684,13 @@
         <v>862914</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="M22" s="7">
         <v>1594</v>
@@ -5699,13 +5699,13 @@
         <v>1656059</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5779,7 +5779,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5794,7 +5794,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -5809,7 +5809,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5824,13 +5824,13 @@
         <v>514174</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>214</v>
+        <v>335</v>
       </c>
       <c r="H25" s="7">
         <v>539</v>
@@ -5839,13 +5839,13 @@
         <v>629403</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="M25" s="7">
         <v>1047</v>
@@ -5854,13 +5854,13 @@
         <v>1143577</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5875,13 +5875,13 @@
         <v>2880176</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>224</v>
+        <v>343</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H26" s="7">
         <v>2799</v>
@@ -5890,13 +5890,13 @@
         <v>2915139</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="M26" s="7">
         <v>5522</v>
@@ -5905,13 +5905,13 @@
         <v>5795315</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5967,7 +5967,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -5988,7 +5988,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B9619A7-BF8D-4583-8E53-E742047A4B72}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B6A5848-D24E-4E10-A01E-CD859494C1F3}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6005,7 +6005,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6118,7 +6118,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6133,7 +6133,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6163,13 +6163,13 @@
         <v>22271</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="H5" s="7">
         <v>94</v>
@@ -6178,13 +6178,13 @@
         <v>39567</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="M5" s="7">
         <v>131</v>
@@ -6193,13 +6193,13 @@
         <v>61838</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6214,13 +6214,13 @@
         <v>79711</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="H6" s="7">
         <v>149</v>
@@ -6229,13 +6229,13 @@
         <v>91166</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="M6" s="7">
         <v>230</v>
@@ -6244,13 +6244,13 @@
         <v>170877</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6324,7 +6324,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -6333,13 +6333,13 @@
         <v>27412</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -6348,13 +6348,13 @@
         <v>27412</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6369,13 +6369,13 @@
         <v>120942</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>383</v>
       </c>
       <c r="H9" s="7">
         <v>305</v>
@@ -6384,13 +6384,13 @@
         <v>143081</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="M9" s="7">
         <v>479</v>
@@ -6399,13 +6399,13 @@
         <v>264023</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6420,13 +6420,13 @@
         <v>428297</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>392</v>
       </c>
       <c r="H10" s="7">
         <v>690</v>
@@ -6435,13 +6435,13 @@
         <v>449474</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>395</v>
       </c>
       <c r="M10" s="7">
         <v>1127</v>
@@ -6450,13 +6450,13 @@
         <v>877771</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6539,13 +6539,13 @@
         <v>1323</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -6554,13 +6554,13 @@
         <v>1323</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>60</v>
+        <v>399</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6656,13 +6656,13 @@
         <v>1712798</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6751,7 +6751,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6781,13 +6781,13 @@
         <v>144914</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>420</v>
       </c>
       <c r="H17" s="7">
         <v>217</v>
@@ -6796,13 +6796,13 @@
         <v>237300</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>423</v>
       </c>
       <c r="M17" s="7">
         <v>383</v>
@@ -6811,13 +6811,13 @@
         <v>382214</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6832,13 +6832,13 @@
         <v>581850</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>429</v>
       </c>
       <c r="H18" s="7">
         <v>827</v>
@@ -6847,13 +6847,13 @@
         <v>635612</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="M18" s="7">
         <v>1334</v>
@@ -6862,13 +6862,13 @@
         <v>1217462</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="P18" s="7" t="s">
-        <v>434</v>
-      </c>
       <c r="Q18" s="7" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6951,13 +6951,13 @@
         <v>2762</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -6966,13 +6966,13 @@
         <v>2762</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6987,13 +6987,13 @@
         <v>192905</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>441</v>
       </c>
       <c r="H21" s="7">
         <v>436</v>
@@ -7002,13 +7002,13 @@
         <v>273028</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>442</v>
+        <v>276</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="M21" s="7">
         <v>691</v>
@@ -7017,13 +7017,13 @@
         <v>465933</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7038,13 +7038,13 @@
         <v>771462</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="H22" s="7">
         <v>1122</v>
@@ -7053,13 +7053,13 @@
         <v>872800</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="M22" s="7">
         <v>1872</v>
@@ -7068,13 +7068,13 @@
         <v>1644262</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>283</v>
+        <v>452</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7148,7 +7148,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -7160,10 +7160,10 @@
         <v>15</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -7172,13 +7172,13 @@
         <v>31497</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7336,7 +7336,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1403-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1403-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5ED41799-6796-4A37-9FEF-4D162F5620EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{587B63D3-C072-4683-A912-1EF9AC581230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CEE4C044-9924-4E15-99E0-859D613D75EC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EAFE0356-53C5-4CF1-9D6C-2C79A40F19E7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="483">
   <si>
     <t>Población con diagnóstico de hipertensión en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No recogida</t>
@@ -95,28 +95,28 @@
     <t>19,29%</t>
   </si>
   <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
   </si>
   <si>
     <t>18,98%</t>
   </si>
   <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
   </si>
   <si>
     <t>19,14%</t>
   </si>
   <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
   </si>
   <si>
     <t>No</t>
@@ -125,34 +125,34 @@
     <t>80,71%</t>
   </si>
   <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
   </si>
   <si>
     <t>81,02%</t>
   </si>
   <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
   </si>
   <si>
     <t>80,86%</t>
   </si>
   <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,33%</t>
@@ -167,58 +167,58 @@
     <t>14,92%</t>
   </si>
   <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
   </si>
   <si>
     <t>15,36%</t>
   </si>
   <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
   </si>
   <si>
     <t>15,14%</t>
   </si>
   <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
   </si>
   <si>
     <t>85,08%</t>
   </si>
   <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
   </si>
   <si>
     <t>84,64%</t>
   </si>
   <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
   </si>
   <si>
     <t>84,86%</t>
   </si>
   <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>0,21%</t>
@@ -230,1135 +230,1153 @@
     <t>12,08%</t>
   </si>
   <si>
-    <t>9,98%</t>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
   </si>
   <si>
     <t>14,33%</t>
   </si>
   <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
   </si>
   <si>
     <t>85,67%</t>
   </si>
   <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de hipertensión en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
   </si>
   <si>
     <t>16,83%</t>
   </si>
   <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
   </si>
   <si>
     <t>83,17%</t>
   </si>
   <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de hipertensión en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>71,18%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de hipertensión en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
   </si>
   <si>
     <t>18,0%</t>
   </si>
   <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
   </si>
   <si>
     <t>82,0%</t>
   </si>
   <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de hipertensión en 2023 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
   </si>
   <si>
     <t>81,64%</t>
   </si>
   <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de hipertensión en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
   </si>
   <si>
     <t>23,77%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de hipertensión en 2023 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
   </si>
   <si>
     <t>21,59%</t>
@@ -1881,7 +1899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3615F6B-FEB3-4C45-B5D2-00E9E32986E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{688FD83A-BBFD-494E-8C7B-D4105504A28E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2910,13 +2928,13 @@
         <v>283830</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2931,13 +2949,13 @@
         <v>825974</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H22" s="7">
         <v>836</v>
@@ -2946,13 +2964,13 @@
         <v>871030</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M22" s="7">
         <v>1700</v>
@@ -2961,13 +2979,13 @@
         <v>1697004</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3041,7 +3059,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3056,7 +3074,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -3071,7 +3089,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3086,13 +3104,13 @@
         <v>427220</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H25" s="7">
         <v>556</v>
@@ -3101,13 +3119,13 @@
         <v>572800</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M25" s="7">
         <v>993</v>
@@ -3116,10 +3134,10 @@
         <v>1000020</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>131</v>
@@ -3134,7 +3152,7 @@
         <v>2777</v>
       </c>
       <c r="D26" s="7">
-        <v>2849324</v>
+        <v>2849323</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>132</v>
@@ -3143,7 +3161,7 @@
         <v>133</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="H26" s="7">
         <v>2741</v>
@@ -3152,13 +3170,13 @@
         <v>2806398</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M26" s="7">
         <v>5518</v>
@@ -3167,13 +3185,13 @@
         <v>5655721</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P26" s="7" t="s">
-        <v>139</v>
-      </c>
       <c r="Q26" s="7" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,7 +3203,7 @@
         <v>3214</v>
       </c>
       <c r="D27" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>36</v>
@@ -3229,7 +3247,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -3250,7 +3268,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E70614FE-C2C3-42C3-94D9-828BA01F930E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC47D42-B1CB-43F9-BB25-D486C4903A81}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3267,7 +3285,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3380,7 +3398,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3395,7 +3413,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3410,7 +3428,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3425,13 +3443,13 @@
         <v>17075</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H5" s="7">
         <v>20</v>
@@ -3440,13 +3458,13 @@
         <v>21945</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M5" s="7">
         <v>38</v>
@@ -3455,13 +3473,13 @@
         <v>39021</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3476,13 +3494,13 @@
         <v>98690</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H6" s="7">
         <v>79</v>
@@ -3491,13 +3509,13 @@
         <v>89960</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M6" s="7">
         <v>183</v>
@@ -3506,13 +3524,13 @@
         <v>188649</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3586,7 +3604,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3601,7 +3619,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3631,13 +3649,13 @@
         <v>120673</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H9" s="7">
         <v>139</v>
@@ -3646,13 +3664,13 @@
         <v>149055</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M9" s="7">
         <v>249</v>
@@ -3661,13 +3679,13 @@
         <v>269728</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3682,13 +3700,13 @@
         <v>467031</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H10" s="7">
         <v>412</v>
@@ -3697,13 +3715,13 @@
         <v>436090</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M10" s="7">
         <v>854</v>
@@ -3712,13 +3730,13 @@
         <v>903121</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3792,7 +3810,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3807,7 +3825,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3837,13 +3855,13 @@
         <v>148866</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>186</v>
+        <v>127</v>
       </c>
       <c r="H13" s="7">
         <v>177</v>
@@ -3852,13 +3870,13 @@
         <v>193223</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M13" s="7">
         <v>312</v>
@@ -3867,13 +3885,13 @@
         <v>342088</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3888,13 +3906,13 @@
         <v>869081</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>194</v>
+        <v>134</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H14" s="7">
         <v>761</v>
@@ -3903,13 +3921,13 @@
         <v>835750</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M14" s="7">
         <v>1562</v>
@@ -3918,13 +3936,13 @@
         <v>1704832</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4013,7 +4031,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4043,13 +4061,13 @@
         <v>112807</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H17" s="7">
         <v>124</v>
@@ -4058,13 +4076,13 @@
         <v>134749</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M17" s="7">
         <v>224</v>
@@ -4076,10 +4094,10 @@
         <v>108</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>107</v>
+        <v>205</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4094,13 +4112,13 @@
         <v>644816</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H18" s="7">
         <v>580</v>
@@ -4109,13 +4127,13 @@
         <v>641316</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M18" s="7">
         <v>1169</v>
@@ -4124,13 +4142,13 @@
         <v>1286133</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>114</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4249,13 +4267,13 @@
         <v>177157</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H21" s="7">
         <v>231</v>
@@ -4264,13 +4282,13 @@
         <v>246222</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M21" s="7">
         <v>392</v>
@@ -4279,13 +4297,13 @@
         <v>423379</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4300,13 +4318,13 @@
         <v>770582</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="H22" s="7">
         <v>772</v>
@@ -4315,13 +4333,13 @@
         <v>805679</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M22" s="7">
         <v>1521</v>
@@ -4330,13 +4348,13 @@
         <v>1576261</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4410,7 +4428,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4425,7 +4443,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4440,7 +4458,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4455,13 +4473,13 @@
         <v>576578</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>92</v>
+        <v>233</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H25" s="7">
         <v>691</v>
@@ -4470,13 +4488,13 @@
         <v>745194</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M25" s="7">
         <v>1215</v>
@@ -4485,13 +4503,13 @@
         <v>1321773</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4506,13 +4524,13 @@
         <v>2850201</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>100</v>
+        <v>242</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H26" s="7">
         <v>2604</v>
@@ -4521,28 +4539,28 @@
         <v>2808796</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M26" s="7">
         <v>5289</v>
       </c>
       <c r="N26" s="7">
-        <v>5658996</v>
+        <v>5658995</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4584,7 +4602,7 @@
         <v>6504</v>
       </c>
       <c r="N27" s="7">
-        <v>6980769</v>
+        <v>6980768</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>36</v>
@@ -4598,7 +4616,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -4619,7 +4637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E6F0F89-DD6C-4892-A49C-5C2299212B5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87F847AC-3EA9-443B-B86D-2F205E54FE26}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4636,7 +4654,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4749,7 +4767,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4764,7 +4782,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4779,7 +4797,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4794,13 +4812,13 @@
         <v>23333</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -4809,13 +4827,13 @@
         <v>18055</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M5" s="7">
         <v>42</v>
@@ -4824,13 +4842,13 @@
         <v>41388</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>205</v>
+        <v>261</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4845,13 +4863,13 @@
         <v>93213</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H6" s="7">
         <v>97</v>
@@ -4860,13 +4878,13 @@
         <v>95305</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="M6" s="7">
         <v>186</v>
@@ -4875,13 +4893,13 @@
         <v>188518</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>211</v>
+        <v>270</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4955,7 +4973,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4970,7 +4988,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4985,7 +5003,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5000,13 +5018,13 @@
         <v>79722</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H9" s="7">
         <v>106</v>
@@ -5015,13 +5033,13 @@
         <v>113855</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="M9" s="7">
         <v>188</v>
@@ -5033,10 +5051,10 @@
         <v>277</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>191</v>
+        <v>281</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5051,13 +5069,13 @@
         <v>478532</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="H10" s="7">
         <v>445</v>
@@ -5066,13 +5084,13 @@
         <v>445624</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="M10" s="7">
         <v>902</v>
@@ -5081,13 +5099,13 @@
         <v>924156</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>201</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5161,7 +5179,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5176,7 +5194,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -5206,13 +5224,13 @@
         <v>158286</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>288</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="H13" s="7">
         <v>147</v>
@@ -5221,13 +5239,13 @@
         <v>176081</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="M13" s="7">
         <v>299</v>
@@ -5236,13 +5254,13 @@
         <v>334366</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5257,13 +5275,13 @@
         <v>864145</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>297</v>
+        <v>58</v>
       </c>
       <c r="H14" s="7">
         <v>830</v>
@@ -5272,13 +5290,13 @@
         <v>866832</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="M14" s="7">
         <v>1629</v>
@@ -5287,13 +5305,13 @@
         <v>1730978</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5382,7 +5400,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5397,7 +5415,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5412,13 +5430,13 @@
         <v>108410</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="H17" s="7">
         <v>119</v>
@@ -5427,13 +5445,13 @@
         <v>140548</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>203</v>
+        <v>313</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="M17" s="7">
         <v>221</v>
@@ -5442,13 +5460,13 @@
         <v>248958</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>65</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5463,13 +5481,13 @@
         <v>651142</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="H18" s="7">
         <v>617</v>
@@ -5478,13 +5496,13 @@
         <v>644463</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>296</v>
+        <v>321</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>210</v>
+        <v>323</v>
       </c>
       <c r="M18" s="7">
         <v>1211</v>
@@ -5493,13 +5511,13 @@
         <v>1295605</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5588,7 +5606,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5618,13 +5636,13 @@
         <v>144422</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>317</v>
+        <v>240</v>
       </c>
       <c r="H21" s="7">
         <v>149</v>
@@ -5633,13 +5651,13 @@
         <v>180865</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="M21" s="7">
         <v>297</v>
@@ -5648,13 +5666,13 @@
         <v>325287</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5669,13 +5687,13 @@
         <v>793145</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>325</v>
+        <v>250</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="H22" s="7">
         <v>810</v>
@@ -5684,13 +5702,13 @@
         <v>862914</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="M22" s="7">
         <v>1594</v>
@@ -5699,13 +5717,13 @@
         <v>1656059</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5779,7 +5797,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5794,7 +5812,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -5809,7 +5827,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5824,13 +5842,13 @@
         <v>514174</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="H25" s="7">
         <v>539</v>
@@ -5839,13 +5857,13 @@
         <v>629403</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="M25" s="7">
         <v>1047</v>
@@ -5854,13 +5872,13 @@
         <v>1143577</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5875,13 +5893,13 @@
         <v>2880176</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="H26" s="7">
         <v>2799</v>
@@ -5890,13 +5908,13 @@
         <v>2915139</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="M26" s="7">
         <v>5522</v>
@@ -5905,13 +5923,13 @@
         <v>5795315</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5967,7 +5985,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -5988,7 +6006,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B6A5848-D24E-4E10-A01E-CD859494C1F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E14926E9-31A9-4A57-8D41-DB67FA7EA8F5}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6005,7 +6023,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6118,7 +6136,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6133,7 +6151,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6148,7 +6166,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6163,13 +6181,13 @@
         <v>22271</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="H5" s="7">
         <v>94</v>
@@ -6178,13 +6196,13 @@
         <v>39567</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="M5" s="7">
         <v>131</v>
@@ -6193,13 +6211,13 @@
         <v>61838</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6214,13 +6232,13 @@
         <v>79711</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="H6" s="7">
         <v>149</v>
@@ -6229,13 +6247,13 @@
         <v>91166</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="M6" s="7">
         <v>230</v>
@@ -6244,13 +6262,13 @@
         <v>170877</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6324,7 +6342,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -6333,13 +6351,13 @@
         <v>27412</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -6348,13 +6366,13 @@
         <v>27412</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6369,13 +6387,13 @@
         <v>120942</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>382</v>
+        <v>171</v>
       </c>
       <c r="H9" s="7">
         <v>305</v>
@@ -6384,13 +6402,13 @@
         <v>143081</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>224</v>
+        <v>263</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="M9" s="7">
         <v>479</v>
@@ -6399,13 +6417,13 @@
         <v>264023</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6420,13 +6438,13 @@
         <v>428297</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>389</v>
+        <v>179</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="H10" s="7">
         <v>690</v>
@@ -6435,13 +6453,13 @@
         <v>449474</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="M10" s="7">
         <v>1127</v>
@@ -6450,13 +6468,13 @@
         <v>877771</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6530,7 +6548,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -6539,13 +6557,13 @@
         <v>1323</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -6554,13 +6572,13 @@
         <v>1323</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6575,13 +6593,13 @@
         <v>179495</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="H13" s="7">
         <v>367</v>
@@ -6590,13 +6608,13 @@
         <v>204283</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="M13" s="7">
         <v>599</v>
@@ -6605,13 +6623,13 @@
         <v>383778</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>406</v>
+        <v>235</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>407</v>
+        <v>347</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6626,13 +6644,13 @@
         <v>858893</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="H14" s="7">
         <v>1147</v>
@@ -6641,13 +6659,13 @@
         <v>853904</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="M14" s="7">
         <v>1878</v>
@@ -6656,13 +6674,13 @@
         <v>1712798</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>216</v>
+        <v>421</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6751,7 +6769,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6781,13 +6799,13 @@
         <v>144914</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="H17" s="7">
         <v>217</v>
@@ -6796,13 +6814,13 @@
         <v>237300</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>421</v>
+        <v>113</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="M17" s="7">
         <v>383</v>
@@ -6811,13 +6829,13 @@
         <v>382214</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6832,13 +6850,13 @@
         <v>581850</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="H18" s="7">
         <v>827</v>
@@ -6847,13 +6865,13 @@
         <v>635612</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>431</v>
+        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>1334</v>
@@ -6862,13 +6880,13 @@
         <v>1217462</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6951,13 +6969,13 @@
         <v>2762</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -6966,13 +6984,13 @@
         <v>2762</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6987,13 +7005,13 @@
         <v>192905</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="H21" s="7">
         <v>436</v>
@@ -7002,13 +7020,13 @@
         <v>273028</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>276</v>
+        <v>445</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="M21" s="7">
         <v>691</v>
@@ -7017,13 +7035,13 @@
         <v>465933</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7038,13 +7056,13 @@
         <v>771462</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="H22" s="7">
         <v>1122</v>
@@ -7053,13 +7071,13 @@
         <v>872800</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="M22" s="7">
         <v>1872</v>
@@ -7068,13 +7086,13 @@
         <v>1644262</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7148,7 +7166,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -7160,10 +7178,10 @@
         <v>15</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -7172,13 +7190,13 @@
         <v>31497</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7193,13 +7211,13 @@
         <v>660526</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="H25" s="7">
         <v>1419</v>
@@ -7208,13 +7226,13 @@
         <v>897259</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="M25" s="7">
         <v>2283</v>
@@ -7223,13 +7241,13 @@
         <v>1557786</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7244,13 +7262,13 @@
         <v>2720215</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="H26" s="7">
         <v>3935</v>
@@ -7259,13 +7277,13 @@
         <v>2902955</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="M26" s="7">
         <v>6441</v>
@@ -7274,13 +7292,13 @@
         <v>5623170</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7336,7 +7354,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1403-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1403-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8A5160D-2501-416B-8D5C-E85CDFF57611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{06BA8DA6-3C54-46AE-8F2F-EA832BEB752E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E9411EBC-670B-449E-AEB6-C7EAC4441AE9}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1ED038E7-381A-44C6-92EF-6770D1A21795}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="362">
   <si>
     <t>Población con diagnóstico de hipertensión en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,1258 +68,1063 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de hipertensión en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
   </si>
   <si>
     <t>17,96%</t>
   </si>
   <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de hipertensión en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
     <t>15,36%</t>
   </si>
   <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
   </si>
   <si>
     <t>84,64%</t>
   </si>
   <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de hipertensión en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de hipertensión en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de hipertensión en 2023 (Tasa respuesta: 99,78%)</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
   </si>
   <si>
     <t>13,56%</t>
   </si>
   <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>71,18%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
   </si>
   <si>
     <t>86,44%</t>
   </si>
   <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de hipertensión en 2023 (Tasa respuesta: 99,78%)</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
   </si>
 </sst>
 </file>
@@ -1731,8 +1536,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E32EF01-F06A-4B42-B541-5F3086D84AC9}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DFC7431-25CD-4EF4-8B24-26CBE0D98A14}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1849,10 +1654,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="D4" s="7">
-        <v>22255</v>
+        <v>108591</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1864,10 +1669,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="I4" s="7">
-        <v>21398</v>
+        <v>109793</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1879,10 +1684,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>46</v>
+        <v>221</v>
       </c>
       <c r="N4" s="7">
-        <v>43653</v>
+        <v>218384</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1900,10 +1705,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>84</v>
+        <v>574</v>
       </c>
       <c r="D5" s="7">
-        <v>93103</v>
+        <v>585421</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1915,10 +1720,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>103</v>
+        <v>584</v>
       </c>
       <c r="I5" s="7">
-        <v>91357</v>
+        <v>578558</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1930,10 +1735,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>187</v>
+        <v>1158</v>
       </c>
       <c r="N5" s="7">
-        <v>184460</v>
+        <v>1163979</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1951,10 +1756,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1966,10 +1771,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1981,10 +1786,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2004,10 +1809,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="D7" s="7">
-        <v>86336</v>
+        <v>116173</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2019,10 +1824,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>87</v>
+        <v>164</v>
       </c>
       <c r="I7" s="7">
-        <v>88395</v>
+        <v>176570</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2034,10 +1839,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>175</v>
+        <v>278</v>
       </c>
       <c r="N7" s="7">
-        <v>174731</v>
+        <v>292743</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2055,10 +1860,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>490</v>
+        <v>782</v>
       </c>
       <c r="D8" s="7">
-        <v>492318</v>
+        <v>845627</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2070,10 +1875,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>481</v>
+        <v>744</v>
       </c>
       <c r="I8" s="7">
-        <v>487201</v>
+        <v>791823</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2085,10 +1890,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>971</v>
+        <v>1526</v>
       </c>
       <c r="N8" s="7">
-        <v>979519</v>
+        <v>1637450</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2106,10 +1911,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2121,10 +1926,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2136,10 +1941,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1146</v>
+        <v>1804</v>
       </c>
       <c r="N9" s="7">
-        <v>1154250</v>
+        <v>1930193</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2159,10 +1964,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="D10" s="7">
-        <v>116173</v>
+        <v>86209</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2174,10 +1979,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>164</v>
+        <v>119</v>
       </c>
       <c r="I10" s="7">
-        <v>176570</v>
+        <v>118855</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2189,10 +1994,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>278</v>
+        <v>203</v>
       </c>
       <c r="N10" s="7">
-        <v>292743</v>
+        <v>205064</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2210,10 +2015,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>782</v>
+        <v>557</v>
       </c>
       <c r="D11" s="7">
-        <v>845627</v>
+        <v>592300</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2225,10 +2030,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>744</v>
+        <v>577</v>
       </c>
       <c r="I11" s="7">
-        <v>791823</v>
+        <v>564986</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2240,10 +2045,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1526</v>
+        <v>1134</v>
       </c>
       <c r="N11" s="7">
-        <v>1637450</v>
+        <v>1157286</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2261,10 +2066,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2276,10 +2081,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2291,10 +2096,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2314,10 +2119,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="D13" s="7">
-        <v>86209</v>
+        <v>116248</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2329,10 +2134,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>119</v>
+        <v>161</v>
       </c>
       <c r="I13" s="7">
-        <v>118855</v>
+        <v>167582</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2344,10 +2149,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>203</v>
+        <v>291</v>
       </c>
       <c r="N13" s="7">
-        <v>205064</v>
+        <v>283830</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2365,10 +2170,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>557</v>
+        <v>864</v>
       </c>
       <c r="D14" s="7">
-        <v>592300</v>
+        <v>825974</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2380,10 +2185,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>577</v>
+        <v>836</v>
       </c>
       <c r="I14" s="7">
-        <v>564986</v>
+        <v>871030</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2395,10 +2200,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>1134</v>
+        <v>1700</v>
       </c>
       <c r="N14" s="7">
-        <v>1157286</v>
+        <v>1697004</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2416,10 +2221,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2431,10 +2236,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2446,10 +2251,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2463,55 +2268,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>130</v>
+        <v>437</v>
       </c>
       <c r="D16" s="7">
-        <v>116248</v>
+        <v>427220</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>556</v>
+      </c>
+      <c r="I16" s="7">
+        <v>572800</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>161</v>
-      </c>
-      <c r="I16" s="7">
-        <v>167582</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>993</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1000020</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>291</v>
-      </c>
-      <c r="N16" s="7">
-        <v>283830</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2520,49 +2325,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>864</v>
+        <v>2777</v>
       </c>
       <c r="D17" s="7">
-        <v>825974</v>
+        <v>2849323</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>2741</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2806397</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>836</v>
-      </c>
-      <c r="I17" s="7">
-        <v>871030</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>5518</v>
+      </c>
+      <c r="N17" s="7">
+        <v>5655721</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>1700</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1697004</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2571,10 +2376,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>994</v>
+        <v>3214</v>
       </c>
       <c r="D18" s="7">
-        <v>942222</v>
+        <v>3276543</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2586,10 +2391,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2601,10 +2406,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1991</v>
+        <v>6511</v>
       </c>
       <c r="N18" s="7">
-        <v>1980834</v>
+        <v>6655741</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2617,171 +2422,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>437</v>
-      </c>
-      <c r="D19" s="7">
-        <v>427220</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>556</v>
-      </c>
-      <c r="I19" s="7">
-        <v>572800</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>993</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1000020</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2777</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2849324</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2741</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2806398</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5518</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5655720</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6511</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2794,8 +2443,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E33DF6B-88BF-48BC-B998-9E751F16A744}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{690E61E1-6FF2-4841-B0A2-C4E0D21AC001}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2811,7 +2460,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2912,49 +2561,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="D4" s="7">
-        <v>17075</v>
+        <v>137749</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="I4" s="7">
-        <v>21945</v>
+        <v>171000</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>38</v>
+        <v>287</v>
       </c>
       <c r="N4" s="7">
-        <v>39021</v>
+        <v>308749</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2963,49 +2612,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>104</v>
+        <v>546</v>
       </c>
       <c r="D5" s="7">
-        <v>98690</v>
+        <v>565720</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>79</v>
+        <v>491</v>
       </c>
       <c r="I5" s="7">
-        <v>89960</v>
+        <v>526050</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
-        <v>183</v>
+        <v>1037</v>
       </c>
       <c r="N5" s="7">
-        <v>188649</v>
+        <v>1091770</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3014,10 +2663,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3029,10 +2678,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3044,10 +2693,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3067,49 +2716,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="D7" s="7">
-        <v>120673</v>
+        <v>148866</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c r="I7" s="7">
-        <v>149055</v>
+        <v>193223</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
-        <v>249</v>
+        <v>312</v>
       </c>
       <c r="N7" s="7">
-        <v>269728</v>
+        <v>342088</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>57</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3118,49 +2767,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>442</v>
+        <v>801</v>
       </c>
       <c r="D8" s="7">
-        <v>467031</v>
+        <v>869081</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="H8" s="7">
-        <v>412</v>
+        <v>761</v>
       </c>
       <c r="I8" s="7">
-        <v>436090</v>
+        <v>835750</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="M8" s="7">
-        <v>854</v>
+        <v>1562</v>
       </c>
       <c r="N8" s="7">
-        <v>903121</v>
+        <v>1704833</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3169,10 +2818,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3184,10 +2833,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>938</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1028973</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3199,10 +2848,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1103</v>
+        <v>1874</v>
       </c>
       <c r="N9" s="7">
-        <v>1172849</v>
+        <v>2046921</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3222,49 +2871,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="D10" s="7">
-        <v>148866</v>
+        <v>112807</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="H10" s="7">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="I10" s="7">
-        <v>193223</v>
+        <v>134749</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="M10" s="7">
-        <v>312</v>
+        <v>224</v>
       </c>
       <c r="N10" s="7">
-        <v>342088</v>
+        <v>247556</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>73</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3273,49 +2922,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>801</v>
+        <v>589</v>
       </c>
       <c r="D11" s="7">
-        <v>869081</v>
+        <v>644816</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="H11" s="7">
-        <v>761</v>
+        <v>580</v>
       </c>
       <c r="I11" s="7">
-        <v>835750</v>
+        <v>641316</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="M11" s="7">
-        <v>1562</v>
+        <v>1169</v>
       </c>
       <c r="N11" s="7">
-        <v>1704832</v>
+        <v>1286133</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>175</v>
+        <v>82</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>85</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3324,10 +2973,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3339,10 +2988,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>938</v>
+        <v>704</v>
       </c>
       <c r="I12" s="7">
-        <v>1028973</v>
+        <v>776065</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3354,10 +3003,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1874</v>
+        <v>1393</v>
       </c>
       <c r="N12" s="7">
-        <v>2046920</v>
+        <v>1533689</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3377,49 +3026,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>100</v>
+        <v>161</v>
       </c>
       <c r="D13" s="7">
-        <v>112807</v>
+        <v>177157</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>34</v>
+        <v>160</v>
       </c>
       <c r="H13" s="7">
-        <v>124</v>
+        <v>231</v>
       </c>
       <c r="I13" s="7">
-        <v>134749</v>
+        <v>246222</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="M13" s="7">
-        <v>224</v>
+        <v>392</v>
       </c>
       <c r="N13" s="7">
-        <v>247556</v>
+        <v>423379</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>92</v>
+        <v>164</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3428,49 +3077,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>589</v>
+        <v>749</v>
       </c>
       <c r="D14" s="7">
-        <v>644816</v>
+        <v>770582</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>42</v>
+        <v>168</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="H14" s="7">
-        <v>580</v>
+        <v>772</v>
       </c>
       <c r="I14" s="7">
-        <v>641316</v>
+        <v>805679</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="M14" s="7">
-        <v>1169</v>
+        <v>1521</v>
       </c>
       <c r="N14" s="7">
-        <v>1286133</v>
+        <v>1576261</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>101</v>
+        <v>173</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3479,10 +3128,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D15" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3494,10 +3143,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>704</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="7">
-        <v>776065</v>
+        <v>1051901</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3509,10 +3158,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1393</v>
+        <v>1913</v>
       </c>
       <c r="N15" s="7">
-        <v>1533689</v>
+        <v>1999640</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3526,55 +3175,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>161</v>
+        <v>524</v>
       </c>
       <c r="D16" s="7">
-        <v>177157</v>
+        <v>576578</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="H16" s="7">
-        <v>231</v>
+        <v>691</v>
       </c>
       <c r="I16" s="7">
-        <v>246222</v>
+        <v>745194</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="M16" s="7">
-        <v>392</v>
+        <v>1215</v>
       </c>
       <c r="N16" s="7">
-        <v>423379</v>
+        <v>1321773</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3583,49 +3232,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>749</v>
+        <v>2685</v>
       </c>
       <c r="D17" s="7">
-        <v>770582</v>
+        <v>2850201</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="H17" s="7">
-        <v>772</v>
+        <v>2604</v>
       </c>
       <c r="I17" s="7">
-        <v>805679</v>
+        <v>2808796</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="M17" s="7">
-        <v>1521</v>
+        <v>5289</v>
       </c>
       <c r="N17" s="7">
-        <v>1576261</v>
+        <v>5658996</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3634,10 +3283,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="D18" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3649,10 +3298,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1003</v>
+        <v>3295</v>
       </c>
       <c r="I18" s="7">
-        <v>1051901</v>
+        <v>3553990</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3664,10 +3313,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1913</v>
+        <v>6504</v>
       </c>
       <c r="N18" s="7">
-        <v>1999640</v>
+        <v>6980769</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3680,171 +3329,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>524</v>
-      </c>
-      <c r="D19" s="7">
-        <v>576578</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="H19" s="7">
-        <v>691</v>
-      </c>
-      <c r="I19" s="7">
-        <v>745194</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1215</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1321773</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2685</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2850201</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2604</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2808796</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5289</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5658995</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3295</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3553990</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6504</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6980768</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3857,8 +3350,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A128B2-88C4-473B-8AD0-94BD59ABDBF2}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BF04BA7-CC89-4D5A-B717-FDCA6F7865F6}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3874,7 +3367,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3975,49 +3468,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="D4" s="7">
-        <v>23333</v>
+        <v>103056</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>228</v>
+        <v>183</v>
       </c>
       <c r="H4" s="7">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="I4" s="7">
-        <v>18055</v>
+        <v>131909</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="M4" s="7">
         <v>230</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="M4" s="7">
-        <v>42</v>
-      </c>
       <c r="N4" s="7">
-        <v>41388</v>
+        <v>234965</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4026,49 +3519,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>89</v>
+        <v>546</v>
       </c>
       <c r="D5" s="7">
-        <v>93213</v>
+        <v>571744</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>236</v>
+        <v>193</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>237</v>
+        <v>204</v>
       </c>
       <c r="H5" s="7">
-        <v>97</v>
+        <v>542</v>
       </c>
       <c r="I5" s="7">
-        <v>95305</v>
+        <v>540930</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>238</v>
+        <v>205</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>239</v>
+        <v>206</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="M5" s="7">
-        <v>186</v>
+        <v>1088</v>
       </c>
       <c r="N5" s="7">
-        <v>188518</v>
+        <v>1112674</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>242</v>
+        <v>209</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4077,10 +3570,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4092,10 +3585,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4107,10 +3600,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4130,49 +3623,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>82</v>
+        <v>152</v>
       </c>
       <c r="D7" s="7">
-        <v>79722</v>
+        <v>158286</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="H7" s="7">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="I7" s="7">
-        <v>113855</v>
+        <v>176081</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>246</v>
+        <v>213</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>247</v>
+        <v>214</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="M7" s="7">
-        <v>188</v>
+        <v>299</v>
       </c>
       <c r="N7" s="7">
-        <v>193577</v>
+        <v>334366</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>57</v>
+        <v>217</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4181,49 +3674,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>457</v>
+        <v>799</v>
       </c>
       <c r="D8" s="7">
-        <v>478532</v>
+        <v>864145</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="H8" s="7">
-        <v>445</v>
+        <v>830</v>
       </c>
       <c r="I8" s="7">
-        <v>445624</v>
+        <v>866832</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="M8" s="7">
-        <v>902</v>
+        <v>1629</v>
       </c>
       <c r="N8" s="7">
-        <v>924156</v>
+        <v>1730978</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>66</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4232,10 +3725,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4247,10 +3740,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4262,10 +3755,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4285,49 +3778,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>152</v>
+        <v>102</v>
       </c>
       <c r="D10" s="7">
-        <v>158286</v>
+        <v>108410</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>72</v>
+        <v>227</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="H10" s="7">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="I10" s="7">
-        <v>176081</v>
+        <v>140548</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="M10" s="7">
-        <v>299</v>
+        <v>221</v>
       </c>
       <c r="N10" s="7">
-        <v>334366</v>
+        <v>248958</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>264</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4336,49 +3829,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>799</v>
+        <v>594</v>
       </c>
       <c r="D11" s="7">
-        <v>864145</v>
+        <v>651142</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>80</v>
+        <v>235</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="H11" s="7">
-        <v>830</v>
+        <v>617</v>
       </c>
       <c r="I11" s="7">
-        <v>866832</v>
+        <v>644463</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>268</v>
+        <v>240</v>
       </c>
       <c r="M11" s="7">
-        <v>1629</v>
+        <v>1211</v>
       </c>
       <c r="N11" s="7">
-        <v>1730978</v>
+        <v>1295605</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>269</v>
+        <v>241</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>270</v>
+        <v>186</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4387,10 +3880,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4402,10 +3895,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4417,10 +3910,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4440,49 +3933,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="D13" s="7">
-        <v>108410</v>
+        <v>144422</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="H13" s="7">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="I13" s="7">
-        <v>140548</v>
+        <v>180865</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="M13" s="7">
-        <v>221</v>
+        <v>297</v>
       </c>
       <c r="N13" s="7">
-        <v>248958</v>
+        <v>325287</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>209</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4491,49 +3984,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>594</v>
+        <v>784</v>
       </c>
       <c r="D14" s="7">
-        <v>651142</v>
+        <v>793145</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>280</v>
+        <v>252</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="H14" s="7">
-        <v>617</v>
+        <v>810</v>
       </c>
       <c r="I14" s="7">
-        <v>644463</v>
+        <v>862914</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="M14" s="7">
-        <v>1211</v>
+        <v>1594</v>
       </c>
       <c r="N14" s="7">
-        <v>1295605</v>
+        <v>1656059</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>286</v>
+        <v>258</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>217</v>
+        <v>259</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4542,10 +4035,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4557,10 +4050,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4572,10 +4065,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4589,55 +4082,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>148</v>
+        <v>508</v>
       </c>
       <c r="D16" s="7">
-        <v>144422</v>
+        <v>514174</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>290</v>
+        <v>159</v>
       </c>
       <c r="H16" s="7">
-        <v>149</v>
+        <v>539</v>
       </c>
       <c r="I16" s="7">
-        <v>180865</v>
+        <v>629403</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>293</v>
+        <v>265</v>
       </c>
       <c r="M16" s="7">
-        <v>297</v>
+        <v>1047</v>
       </c>
       <c r="N16" s="7">
-        <v>325287</v>
+        <v>1143577</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4646,49 +4139,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>784</v>
+        <v>2723</v>
       </c>
       <c r="D17" s="7">
-        <v>793145</v>
+        <v>2880176</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>298</v>
+        <v>169</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="H17" s="7">
-        <v>810</v>
+        <v>2799</v>
       </c>
       <c r="I17" s="7">
-        <v>862914</v>
+        <v>2915139</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>300</v>
+        <v>271</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="M17" s="7">
-        <v>1594</v>
+        <v>5522</v>
       </c>
       <c r="N17" s="7">
-        <v>1656059</v>
+        <v>5795315</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>304</v>
+        <v>275</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>305</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4697,10 +4190,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4712,10 +4205,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4727,10 +4220,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4743,171 +4236,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>508</v>
-      </c>
-      <c r="D19" s="7">
-        <v>514174</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H19" s="7">
-        <v>539</v>
-      </c>
-      <c r="I19" s="7">
-        <v>629403</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1047</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1143577</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2723</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2880176</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2799</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2915139</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5522</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5795315</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4920,8 +4257,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD17D949-3F72-4186-9A48-E18F7E8483A2}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6FAE53A-FA27-4CE2-B29B-138C881ADB99}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4937,7 +4274,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>322</v>
+        <v>277</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5038,49 +4375,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>37</v>
+        <v>211</v>
       </c>
       <c r="D4" s="7">
-        <v>22271</v>
+        <v>136593</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>323</v>
+        <v>278</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>324</v>
+        <v>279</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>325</v>
+        <v>280</v>
       </c>
       <c r="H4" s="7">
-        <v>94</v>
+        <v>399</v>
       </c>
       <c r="I4" s="7">
-        <v>39567</v>
+        <v>170007</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>326</v>
+        <v>281</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>327</v>
+        <v>282</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>328</v>
+        <v>283</v>
       </c>
       <c r="M4" s="7">
-        <v>131</v>
+        <v>610</v>
       </c>
       <c r="N4" s="7">
-        <v>61838</v>
+        <v>306600</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>329</v>
+        <v>284</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>330</v>
+        <v>285</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>331</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5089,49 +4426,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>81</v>
+        <v>518</v>
       </c>
       <c r="D5" s="7">
-        <v>79711</v>
+        <v>498299</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>332</v>
+        <v>287</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>333</v>
+        <v>288</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>334</v>
+        <v>289</v>
       </c>
       <c r="H5" s="7">
-        <v>149</v>
+        <v>839</v>
       </c>
       <c r="I5" s="7">
-        <v>91166</v>
+        <v>505363</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>335</v>
+        <v>290</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>336</v>
+        <v>291</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>337</v>
+        <v>292</v>
       </c>
       <c r="M5" s="7">
-        <v>230</v>
+        <v>1357</v>
       </c>
       <c r="N5" s="7">
-        <v>170877</v>
+        <v>1003662</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>338</v>
+        <v>293</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>339</v>
+        <v>294</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>340</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5140,10 +4477,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>729</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>634892</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5155,10 +4492,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1238</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>675370</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5170,10 +4507,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>361</v>
+        <v>1967</v>
       </c>
       <c r="N6" s="7">
-        <v>232715</v>
+        <v>1310262</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5193,49 +4530,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>174</v>
+        <v>232</v>
       </c>
       <c r="D7" s="7">
-        <v>120942</v>
+        <v>165963</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>342</v>
+        <v>297</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>343</v>
+        <v>298</v>
       </c>
       <c r="H7" s="7">
-        <v>305</v>
+        <v>367</v>
       </c>
       <c r="I7" s="7">
-        <v>143081</v>
+        <v>184738</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>344</v>
+        <v>300</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>345</v>
+        <v>301</v>
       </c>
       <c r="M7" s="7">
-        <v>479</v>
+        <v>599</v>
       </c>
       <c r="N7" s="7">
-        <v>264023</v>
+        <v>350702</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>346</v>
+        <v>302</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>348</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5244,49 +4581,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>437</v>
+        <v>731</v>
       </c>
       <c r="D8" s="7">
-        <v>428297</v>
+        <v>1026093</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>349</v>
+        <v>304</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>350</v>
+        <v>305</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>351</v>
+        <v>306</v>
       </c>
       <c r="H8" s="7">
-        <v>690</v>
+        <v>1147</v>
       </c>
       <c r="I8" s="7">
-        <v>449474</v>
+        <v>772172</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>337</v>
+        <v>307</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>352</v>
+        <v>308</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>353</v>
+        <v>309</v>
       </c>
       <c r="M8" s="7">
-        <v>1127</v>
+        <v>1878</v>
       </c>
       <c r="N8" s="7">
-        <v>877771</v>
+        <v>1798265</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>354</v>
+        <v>310</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>355</v>
+        <v>191</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>356</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5295,10 +4632,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>611</v>
+        <v>963</v>
       </c>
       <c r="D9" s="7">
-        <v>549239</v>
+        <v>1192056</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5310,10 +4647,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>995</v>
+        <v>1514</v>
       </c>
       <c r="I9" s="7">
-        <v>592555</v>
+        <v>956910</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5325,10 +4662,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1606</v>
+        <v>2477</v>
       </c>
       <c r="N9" s="7">
-        <v>1141794</v>
+        <v>2148967</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5348,49 +4685,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>232</v>
+        <v>166</v>
       </c>
       <c r="D10" s="7">
-        <v>179495</v>
+        <v>136687</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>357</v>
+        <v>312</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>358</v>
+        <v>313</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>359</v>
+        <v>314</v>
       </c>
       <c r="H10" s="7">
-        <v>367</v>
+        <v>217</v>
       </c>
       <c r="I10" s="7">
-        <v>204283</v>
+        <v>321640</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>361</v>
+        <v>316</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="M10" s="7">
-        <v>599</v>
+        <v>383</v>
       </c>
       <c r="N10" s="7">
-        <v>383778</v>
+        <v>458327</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>112</v>
+        <v>318</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>363</v>
+        <v>59</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>364</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5399,49 +4736,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>731</v>
+        <v>507</v>
       </c>
       <c r="D11" s="7">
-        <v>858893</v>
+        <v>566115</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>366</v>
+        <v>321</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>367</v>
+        <v>322</v>
       </c>
       <c r="H11" s="7">
-        <v>1147</v>
+        <v>827</v>
       </c>
       <c r="I11" s="7">
-        <v>853904</v>
+        <v>610379</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>368</v>
+        <v>323</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>369</v>
+        <v>324</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>370</v>
+        <v>325</v>
       </c>
       <c r="M11" s="7">
-        <v>1878</v>
+        <v>1334</v>
       </c>
       <c r="N11" s="7">
-        <v>1712798</v>
+        <v>1176494</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>120</v>
+        <v>326</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>371</v>
+        <v>327</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>372</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5450,10 +4787,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>963</v>
+        <v>673</v>
       </c>
       <c r="D12" s="7">
-        <v>1038388</v>
+        <v>702802</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5465,10 +4802,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1514</v>
+        <v>1044</v>
       </c>
       <c r="I12" s="7">
-        <v>1058187</v>
+        <v>932019</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5480,10 +4817,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2477</v>
+        <v>1717</v>
       </c>
       <c r="N12" s="7">
-        <v>2096576</v>
+        <v>1634821</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5503,49 +4840,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>166</v>
+        <v>255</v>
       </c>
       <c r="D13" s="7">
-        <v>144914</v>
+        <v>182010</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>373</v>
+        <v>328</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>374</v>
+        <v>329</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>375</v>
+        <v>330</v>
       </c>
       <c r="H13" s="7">
-        <v>217</v>
+        <v>436</v>
       </c>
       <c r="I13" s="7">
-        <v>237300</v>
+        <v>243593</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>376</v>
+        <v>331</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>377</v>
+        <v>332</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>378</v>
+        <v>333</v>
       </c>
       <c r="M13" s="7">
-        <v>383</v>
+        <v>691</v>
       </c>
       <c r="N13" s="7">
-        <v>382214</v>
+        <v>425603</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>379</v>
+        <v>334</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>380</v>
+        <v>335</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>381</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5554,49 +4891,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>507</v>
+        <v>750</v>
       </c>
       <c r="D14" s="7">
-        <v>581850</v>
+        <v>743805</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>382</v>
+        <v>337</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>383</v>
+        <v>338</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>384</v>
+        <v>339</v>
       </c>
       <c r="H14" s="7">
-        <v>827</v>
+        <v>1122</v>
       </c>
       <c r="I14" s="7">
-        <v>635612</v>
+        <v>847304</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>385</v>
+        <v>340</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>386</v>
+        <v>341</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>387</v>
+        <v>342</v>
       </c>
       <c r="M14" s="7">
-        <v>1334</v>
+        <v>1872</v>
       </c>
       <c r="N14" s="7">
-        <v>1217462</v>
+        <v>1591108</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>388</v>
+        <v>343</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>389</v>
+        <v>344</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>390</v>
+        <v>345</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5605,10 +4942,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>673</v>
+        <v>1005</v>
       </c>
       <c r="D15" s="7">
-        <v>726764</v>
+        <v>925815</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5620,10 +4957,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1044</v>
+        <v>1558</v>
       </c>
       <c r="I15" s="7">
-        <v>872912</v>
+        <v>1090897</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5635,10 +4972,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1717</v>
+        <v>2563</v>
       </c>
       <c r="N15" s="7">
-        <v>1599676</v>
+        <v>2016711</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5652,55 +4989,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>255</v>
+        <v>864</v>
       </c>
       <c r="D16" s="7">
-        <v>192905</v>
+        <v>621253</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>391</v>
+        <v>346</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>392</v>
+        <v>347</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>393</v>
+        <v>348</v>
       </c>
       <c r="H16" s="7">
-        <v>436</v>
+        <v>1419</v>
       </c>
       <c r="I16" s="7">
-        <v>273028</v>
+        <v>919978</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>394</v>
+        <v>281</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>395</v>
+        <v>349</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>396</v>
+        <v>350</v>
       </c>
       <c r="M16" s="7">
-        <v>691</v>
+        <v>2283</v>
       </c>
       <c r="N16" s="7">
-        <v>465933</v>
+        <v>1541231</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>397</v>
+        <v>351</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>398</v>
+        <v>352</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>399</v>
+        <v>353</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5709,49 +5046,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>750</v>
+        <v>2506</v>
       </c>
       <c r="D17" s="7">
-        <v>771462</v>
+        <v>2834312</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>400</v>
+        <v>354</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>401</v>
+        <v>355</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>402</v>
+        <v>356</v>
       </c>
       <c r="H17" s="7">
-        <v>1122</v>
+        <v>3935</v>
       </c>
       <c r="I17" s="7">
-        <v>872800</v>
+        <v>2735218</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>403</v>
+        <v>290</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>404</v>
+        <v>357</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>405</v>
+        <v>358</v>
       </c>
       <c r="M17" s="7">
-        <v>1872</v>
+        <v>6441</v>
       </c>
       <c r="N17" s="7">
-        <v>1644262</v>
+        <v>5569530</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>406</v>
+        <v>359</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>407</v>
+        <v>360</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>408</v>
+        <v>361</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5760,10 +5097,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1005</v>
+        <v>3370</v>
       </c>
       <c r="D18" s="7">
-        <v>964367</v>
+        <v>3455565</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5775,10 +5112,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1558</v>
+        <v>5354</v>
       </c>
       <c r="I18" s="7">
-        <v>1145828</v>
+        <v>3655196</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5790,10 +5127,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2563</v>
+        <v>8724</v>
       </c>
       <c r="N18" s="7">
-        <v>2110195</v>
+        <v>7110761</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5806,171 +5143,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>864</v>
-      </c>
-      <c r="D19" s="7">
-        <v>660526</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1419</v>
-      </c>
-      <c r="I19" s="7">
-        <v>897259</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2283</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1557786</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2506</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2720215</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3935</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2902955</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6441</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5623170</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3370</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3380741</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5354</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3800214</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8724</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7180956</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
